--- a/assets/prepared/BLA_04.xlsx
+++ b/assets/prepared/BLA_04.xlsx
@@ -485,7 +485,7 @@
         <v>2025</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -498,19 +498,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2455</v>
+        <v>2845</v>
       </c>
       <c r="F2" t="n">
-        <v>6461</v>
+        <v>7453</v>
       </c>
       <c r="G2" t="n">
-        <v>817495</v>
+        <v>960815</v>
       </c>
       <c r="H2" t="n">
-        <v>239417</v>
+        <v>281311</v>
       </c>
       <c r="I2" t="n">
-        <v>4691</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>2025</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>639</v>
+        <v>680</v>
       </c>
       <c r="F3" t="n">
-        <v>1777</v>
+        <v>1916</v>
       </c>
       <c r="G3" t="n">
-        <v>225389</v>
+        <v>260652</v>
       </c>
       <c r="H3" t="n">
-        <v>65716</v>
+        <v>75822</v>
       </c>
       <c r="I3" t="n">
-        <v>943</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         <v>2025</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -565,19 +565,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F4" t="n">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G4" t="n">
-        <v>22455</v>
+        <v>21182</v>
       </c>
       <c r="H4" t="n">
-        <v>6729</v>
+        <v>6199</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -585,7 +585,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="F5" t="n">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="G5" t="n">
-        <v>52615</v>
+        <v>68579</v>
       </c>
       <c r="H5" t="n">
-        <v>15739</v>
+        <v>19218</v>
       </c>
       <c r="I5" t="n">
-        <v>168</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
@@ -619,7 +619,7 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="G6" t="n">
-        <v>16238</v>
+        <v>21906</v>
       </c>
       <c r="H6" t="n">
-        <v>4557</v>
+        <v>6330</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>2025</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F7" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G7" t="n">
-        <v>36336</v>
+        <v>33301</v>
       </c>
       <c r="H7" t="n">
-        <v>10702</v>
+        <v>10237</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -687,7 +687,7 @@
         <v>2025</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -700,19 +700,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="F8" t="n">
-        <v>412</v>
+        <v>565</v>
       </c>
       <c r="G8" t="n">
-        <v>50184</v>
+        <v>77422</v>
       </c>
       <c r="H8" t="n">
-        <v>14528</v>
+        <v>22838</v>
       </c>
       <c r="I8" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -720,7 +720,7 @@
         <v>2025</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -733,19 +733,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>12570</v>
+        <v>4072</v>
       </c>
       <c r="H9" t="n">
-        <v>3625</v>
+        <v>1204</v>
       </c>
       <c r="I9" t="n">
-        <v>368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -753,7 +753,7 @@
         <v>2025</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F10" t="n">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="G10" t="n">
-        <v>27501</v>
+        <v>28516</v>
       </c>
       <c r="H10" t="n">
-        <v>7753</v>
+        <v>8139</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -786,7 +786,7 @@
         <v>2025</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -799,19 +799,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G11" t="n">
-        <v>7490</v>
+        <v>5674</v>
       </c>
       <c r="H11" t="n">
-        <v>2083</v>
+        <v>1657</v>
       </c>
       <c r="I11" t="n">
-        <v>165</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -819,7 +819,7 @@
         <v>2025</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -832,19 +832,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="F12" t="n">
-        <v>395</v>
+        <v>661</v>
       </c>
       <c r="G12" t="n">
-        <v>47181</v>
+        <v>80503</v>
       </c>
       <c r="H12" t="n">
-        <v>14314</v>
+        <v>24750</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13">
@@ -852,7 +852,7 @@
         <v>2025</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F13" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G13" t="n">
-        <v>9194</v>
+        <v>11614</v>
       </c>
       <c r="H13" t="n">
-        <v>2668</v>
+        <v>3631</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>2025</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -898,19 +898,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G14" t="n">
-        <v>2030</v>
+        <v>3930</v>
       </c>
       <c r="H14" t="n">
-        <v>543</v>
+        <v>1091</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
@@ -918,7 +918,7 @@
         <v>2025</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -931,16 +931,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="F15" t="n">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>5213</v>
+        <v>25889</v>
       </c>
       <c r="H15" t="n">
-        <v>1537</v>
+        <v>8476</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>2025</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -964,19 +964,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G16" t="n">
-        <v>9012</v>
+        <v>5293</v>
       </c>
       <c r="H16" t="n">
-        <v>2749</v>
+        <v>1583</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17">
@@ -984,7 +984,7 @@
         <v>2025</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -997,19 +997,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="F17" t="n">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="G17" t="n">
-        <v>19745</v>
+        <v>26172</v>
       </c>
       <c r="H17" t="n">
-        <v>6273</v>
+        <v>7573</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -1017,7 +1017,7 @@
         <v>2025</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="G18" t="n">
-        <v>1987</v>
+        <v>7605</v>
       </c>
       <c r="H18" t="n">
-        <v>544</v>
+        <v>2396</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>2025</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1063,19 +1063,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>312</v>
+        <v>427</v>
       </c>
       <c r="F19" t="n">
-        <v>661</v>
+        <v>1071</v>
       </c>
       <c r="G19" t="n">
-        <v>80379</v>
+        <v>146562</v>
       </c>
       <c r="H19" t="n">
-        <v>23375</v>
+        <v>41313</v>
       </c>
       <c r="I19" t="n">
-        <v>83</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20">
@@ -1083,7 +1083,7 @@
         <v>2025</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1096,16 +1096,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="F20" t="n">
-        <v>303</v>
+        <v>569</v>
       </c>
       <c r="G20" t="n">
-        <v>35731</v>
+        <v>72316</v>
       </c>
       <c r="H20" t="n">
-        <v>9152</v>
+        <v>19778</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>2025</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1129,16 +1129,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G21" t="n">
-        <v>2113</v>
+        <v>4728</v>
       </c>
       <c r="H21" t="n">
-        <v>677</v>
+        <v>1275</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>2025</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1162,19 +1162,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>3064</v>
+        <v>2482</v>
       </c>
       <c r="H22" t="n">
-        <v>880</v>
+        <v>726</v>
       </c>
       <c r="I22" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1182,7 +1182,7 @@
         <v>2025</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1195,19 +1195,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>2292</v>
+        <v>3875</v>
       </c>
       <c r="H23" t="n">
-        <v>686</v>
+        <v>1323</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -1215,7 +1215,7 @@
         <v>2025</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1228,19 +1228,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G24" t="n">
-        <v>7545</v>
+        <v>12031</v>
       </c>
       <c r="H24" t="n">
-        <v>2344</v>
+        <v>3454</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25">
@@ -1248,7 +1248,7 @@
         <v>2025</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1261,19 +1261,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="G25" t="n">
-        <v>7396</v>
+        <v>11020</v>
       </c>
       <c r="H25" t="n">
-        <v>2580</v>
+        <v>3473</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -1281,7 +1281,7 @@
         <v>2025</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F26" t="n">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="G26" t="n">
-        <v>22238</v>
+        <v>40110</v>
       </c>
       <c r="H26" t="n">
-        <v>7056</v>
+        <v>11284</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>2025</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1327,19 +1327,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>5386</v>
+        <v>3568</v>
       </c>
       <c r="H27" t="n">
-        <v>1519</v>
+        <v>978</v>
       </c>
       <c r="I27" t="n">
-        <v>644</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28">
@@ -1347,7 +1347,7 @@
         <v>2025</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1360,19 +1360,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>5109</v>
+        <v>3012</v>
       </c>
       <c r="H28" t="n">
-        <v>1443</v>
+        <v>828</v>
       </c>
       <c r="I28" t="n">
-        <v>644</v>
+        <v>707</v>
       </c>
     </row>
     <row r="29">
@@ -1380,7 +1380,7 @@
         <v>2025</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>2025</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1426,16 +1426,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>2025</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1462,13 +1462,13 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>277</v>
+        <v>508</v>
       </c>
       <c r="H31" t="n">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>2025</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1492,19 +1492,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="F32" t="n">
-        <v>167</v>
+        <v>360</v>
       </c>
       <c r="G32" t="n">
-        <v>22958</v>
+        <v>39019</v>
       </c>
       <c r="H32" t="n">
-        <v>7298</v>
+        <v>11839</v>
       </c>
       <c r="I32" t="n">
-        <v>564</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -1512,7 +1512,7 @@
         <v>2025</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="F33" t="n">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="G33" t="n">
-        <v>7077</v>
+        <v>20933</v>
       </c>
       <c r="H33" t="n">
-        <v>2207</v>
+        <v>6175</v>
       </c>
       <c r="I33" t="n">
-        <v>473</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1545,7 +1545,7 @@
         <v>2025</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>1084</v>
+        <v>364</v>
       </c>
       <c r="H34" t="n">
-        <v>332</v>
+        <v>104</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
@@ -1578,7 +1578,7 @@
         <v>2025</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1591,19 +1591,19 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F35" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G35" t="n">
-        <v>6046</v>
+        <v>3496</v>
       </c>
       <c r="H35" t="n">
-        <v>1973</v>
+        <v>1122</v>
       </c>
       <c r="I35" t="n">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -1611,7 +1611,7 @@
         <v>2025</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F36" t="n">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="G36" t="n">
-        <v>8751</v>
+        <v>14226</v>
       </c>
       <c r="H36" t="n">
-        <v>2786</v>
+        <v>4438</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>2025</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F37" t="n">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G37" t="n">
-        <v>52279</v>
+        <v>50323</v>
       </c>
       <c r="H37" t="n">
-        <v>14474</v>
+        <v>13684</v>
       </c>
       <c r="I37" t="n">
-        <v>675</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38">
@@ -1677,7 +1677,7 @@
         <v>2025</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1690,19 +1690,19 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="F38" t="n">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="G38" t="n">
-        <v>29692</v>
+        <v>23907</v>
       </c>
       <c r="H38" t="n">
-        <v>7744</v>
+        <v>6087</v>
       </c>
       <c r="I38" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1710,7 +1710,7 @@
         <v>2025</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1723,16 +1723,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="G39" t="n">
-        <v>179</v>
+        <v>10257</v>
       </c>
       <c r="H39" t="n">
-        <v>45</v>
+        <v>2834</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>2025</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1756,19 +1756,19 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G40" t="n">
-        <v>10502</v>
+        <v>4959</v>
       </c>
       <c r="H40" t="n">
-        <v>3112</v>
+        <v>1373</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41">
@@ -1776,7 +1776,7 @@
         <v>2025</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1789,19 +1789,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>4276</v>
+        <v>454</v>
       </c>
       <c r="H41" t="n">
-        <v>1359</v>
+        <v>114</v>
       </c>
       <c r="I41" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1809,7 +1809,7 @@
         <v>2025</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1822,19 +1822,19 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F42" t="n">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
-        <v>7630</v>
+        <v>10746</v>
       </c>
       <c r="H42" t="n">
-        <v>2214</v>
+        <v>3276</v>
       </c>
       <c r="I42" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1842,7 +1842,7 @@
         <v>2025</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1855,19 +1855,19 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F43" t="n">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="G43" t="n">
-        <v>20945</v>
+        <v>27245</v>
       </c>
       <c r="H43" t="n">
-        <v>6227</v>
+        <v>7841</v>
       </c>
       <c r="I43" t="n">
-        <v>368</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44">
@@ -1875,7 +1875,7 @@
         <v>2025</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1888,19 +1888,19 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G44" t="n">
-        <v>2588</v>
+        <v>3022</v>
       </c>
       <c r="H44" t="n">
-        <v>814</v>
+        <v>908</v>
       </c>
       <c r="I44" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1908,7 +1908,7 @@
         <v>2025</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1921,19 +1921,19 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F45" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G45" t="n">
-        <v>4392</v>
+        <v>3007</v>
       </c>
       <c r="H45" t="n">
-        <v>1377</v>
+        <v>886</v>
       </c>
       <c r="I45" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1941,7 +1941,7 @@
         <v>2025</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1954,19 +1954,19 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F46" t="n">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="G46" t="n">
-        <v>10584</v>
+        <v>19480</v>
       </c>
       <c r="H46" t="n">
-        <v>2971</v>
+        <v>5526</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
@@ -1974,7 +1974,7 @@
         <v>2025</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1987,19 +1987,19 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G47" t="n">
-        <v>2075</v>
+        <v>691</v>
       </c>
       <c r="H47" t="n">
-        <v>678</v>
+        <v>231</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48">
@@ -2007,7 +2007,7 @@
         <v>2025</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2020,16 +2020,16 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G48" t="n">
-        <v>1306</v>
+        <v>1045</v>
       </c>
       <c r="H48" t="n">
-        <v>387</v>
+        <v>290</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>2025</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2053,19 +2053,19 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="F49" t="n">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="G49" t="n">
-        <v>64792</v>
+        <v>76457</v>
       </c>
       <c r="H49" t="n">
-        <v>19565</v>
+        <v>23460</v>
       </c>
       <c r="I49" t="n">
-        <v>48</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50">
@@ -2073,7 +2073,7 @@
         <v>2025</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2086,16 +2086,16 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F50" t="n">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="G50" t="n">
-        <v>19467</v>
+        <v>14900</v>
       </c>
       <c r="H50" t="n">
-        <v>5676</v>
+        <v>4155</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>2025</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2119,19 +2119,19 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F51" t="n">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="G51" t="n">
-        <v>10017</v>
+        <v>20500</v>
       </c>
       <c r="H51" t="n">
-        <v>2972</v>
+        <v>6371</v>
       </c>
       <c r="I51" t="n">
-        <v>48</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52">
@@ -2139,7 +2139,7 @@
         <v>2025</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>2025</v>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2185,16 +2185,16 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F53" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G53" t="n">
-        <v>11524</v>
+        <v>10975</v>
       </c>
       <c r="H53" t="n">
-        <v>3425</v>
+        <v>3380</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>2025</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F54" t="n">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="G54" t="n">
-        <v>23244</v>
+        <v>30082</v>
       </c>
       <c r="H54" t="n">
-        <v>7312</v>
+        <v>9554</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>2025</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2251,19 +2251,19 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F55" t="n">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="G55" t="n">
-        <v>42298</v>
+        <v>41178</v>
       </c>
       <c r="H55" t="n">
-        <v>12510</v>
+        <v>12268</v>
       </c>
       <c r="I55" t="n">
-        <v>294</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -2271,7 +2271,7 @@
         <v>2025</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56" t="n">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G56" t="n">
-        <v>16179</v>
+        <v>21591</v>
       </c>
       <c r="H56" t="n">
-        <v>4877</v>
+        <v>6826</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>2025</v>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F57" t="n">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G57" t="n">
-        <v>19433</v>
+        <v>16650</v>
       </c>
       <c r="H57" t="n">
-        <v>5650</v>
+        <v>4621</v>
       </c>
       <c r="I57" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2337,7 +2337,7 @@
         <v>2025</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2350,19 +2350,19 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G58" t="n">
-        <v>6686</v>
+        <v>2937</v>
       </c>
       <c r="H58" t="n">
-        <v>1983</v>
+        <v>821</v>
       </c>
       <c r="I58" t="n">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -2370,7 +2370,7 @@
         <v>2025</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2383,19 +2383,19 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="F59" t="n">
-        <v>445</v>
+        <v>561</v>
       </c>
       <c r="G59" t="n">
-        <v>63676</v>
+        <v>72981</v>
       </c>
       <c r="H59" t="n">
-        <v>18150</v>
+        <v>21055</v>
       </c>
       <c r="I59" t="n">
-        <v>201</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="60">
@@ -2403,7 +2403,7 @@
         <v>2025</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2416,19 +2416,19 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F60" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G60" t="n">
-        <v>6006</v>
+        <v>7175</v>
       </c>
       <c r="H60" t="n">
-        <v>1944</v>
+        <v>2258</v>
       </c>
       <c r="I60" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
@@ -2436,7 +2436,7 @@
         <v>2025</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2449,19 +2449,19 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F61" t="n">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="G61" t="n">
-        <v>13779</v>
+        <v>19581</v>
       </c>
       <c r="H61" t="n">
-        <v>3971</v>
+        <v>5729</v>
       </c>
       <c r="I61" t="n">
-        <v>145</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62">
@@ -2469,7 +2469,7 @@
         <v>2025</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2482,19 +2482,19 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F62" t="n">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="G62" t="n">
-        <v>11882</v>
+        <v>7849</v>
       </c>
       <c r="H62" t="n">
-        <v>3537</v>
+        <v>2445</v>
       </c>
       <c r="I62" t="n">
-        <v>36</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -2502,7 +2502,7 @@
         <v>2025</v>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2515,19 +2515,19 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F63" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G63" t="n">
-        <v>7279</v>
+        <v>10054</v>
       </c>
       <c r="H63" t="n">
-        <v>2136</v>
+        <v>2849</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>841</v>
       </c>
     </row>
     <row r="64">
@@ -2535,7 +2535,7 @@
         <v>2025</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2548,19 +2548,19 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F64" t="n">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="G64" t="n">
-        <v>24730</v>
+        <v>28322</v>
       </c>
       <c r="H64" t="n">
-        <v>6562</v>
+        <v>7774</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65">
@@ -2568,7 +2568,7 @@
         <v>2025</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2581,19 +2581,19 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F65" t="n">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="G65" t="n">
-        <v>10517</v>
+        <v>17365</v>
       </c>
       <c r="H65" t="n">
-        <v>3187</v>
+        <v>5506</v>
       </c>
       <c r="I65" t="n">
-        <v>336</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66">
@@ -2601,7 +2601,7 @@
         <v>2025</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2614,19 +2614,19 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F66" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G66" t="n">
-        <v>2024</v>
+        <v>5281</v>
       </c>
       <c r="H66" t="n">
-        <v>568</v>
+        <v>1598</v>
       </c>
       <c r="I66" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
@@ -2634,7 +2634,7 @@
         <v>2025</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G67" t="n">
-        <v>278</v>
+        <v>901</v>
       </c>
       <c r="H67" t="n">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>2025</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2680,16 +2680,16 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G68" t="n">
-        <v>2770</v>
+        <v>2452</v>
       </c>
       <c r="H68" t="n">
-        <v>878</v>
+        <v>923</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>2025</v>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2713,19 +2713,19 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G69" t="n">
-        <v>706</v>
+        <v>2376</v>
       </c>
       <c r="H69" t="n">
-        <v>217</v>
+        <v>720</v>
       </c>
       <c r="I69" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70">
@@ -2733,7 +2733,7 @@
         <v>2025</v>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2746,19 +2746,19 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F70" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G70" t="n">
-        <v>4739</v>
+        <v>6355</v>
       </c>
       <c r="H70" t="n">
-        <v>1442</v>
+        <v>2008</v>
       </c>
       <c r="I70" t="n">
-        <v>232</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71">
@@ -2766,7 +2766,7 @@
         <v>2025</v>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2779,19 +2779,19 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>297</v>
+        <v>189</v>
       </c>
       <c r="F71" t="n">
-        <v>774</v>
+        <v>462</v>
       </c>
       <c r="G71" t="n">
-        <v>92552</v>
+        <v>49787</v>
       </c>
       <c r="H71" t="n">
-        <v>27172</v>
+        <v>14550</v>
       </c>
       <c r="I71" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2799,7 +2799,7 @@
         <v>2025</v>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2812,16 +2812,16 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G72" t="n">
-        <v>2442</v>
+        <v>1087</v>
       </c>
       <c r="H72" t="n">
-        <v>724</v>
+        <v>319</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>2025</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2848,13 +2848,13 @@
         <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G73" t="n">
-        <v>276</v>
+        <v>680</v>
       </c>
       <c r="H73" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>2025</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2878,16 +2878,16 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="F74" t="n">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="G74" t="n">
-        <v>22037</v>
+        <v>6636</v>
       </c>
       <c r="H74" t="n">
-        <v>6680</v>
+        <v>1932</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>2025</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2911,16 +2911,16 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G75" t="n">
-        <v>5600</v>
+        <v>2529</v>
       </c>
       <c r="H75" t="n">
-        <v>1742</v>
+        <v>724</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>2025</v>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2944,16 +2944,16 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>718</v>
+        <v>379</v>
       </c>
       <c r="H76" t="n">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>2025</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2977,16 +2977,16 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G77" t="n">
-        <v>2652</v>
+        <v>1283</v>
       </c>
       <c r="H77" t="n">
-        <v>838</v>
+        <v>354</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>2025</v>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3010,16 +3010,16 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F78" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>3663</v>
+        <v>5647</v>
       </c>
       <c r="H78" t="n">
-        <v>1033</v>
+        <v>1680</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>2025</v>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3043,16 +3043,16 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G79" t="n">
-        <v>2457</v>
+        <v>1947</v>
       </c>
       <c r="H79" t="n">
-        <v>734</v>
+        <v>605</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>2025</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -3076,16 +3076,16 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>743</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>2025</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3109,19 +3109,19 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F81" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="G81" t="n">
-        <v>10638</v>
+        <v>7347</v>
       </c>
       <c r="H81" t="n">
-        <v>3179</v>
+        <v>2226</v>
       </c>
       <c r="I81" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3129,7 +3129,7 @@
         <v>2025</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -3142,19 +3142,19 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F82" t="n">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="G82" t="n">
-        <v>20294</v>
+        <v>15525</v>
       </c>
       <c r="H82" t="n">
-        <v>6156</v>
+        <v>4322</v>
       </c>
       <c r="I82" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3162,7 +3162,7 @@
         <v>2025</v>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3175,16 +3175,16 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F83" t="n">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="G83" t="n">
-        <v>16443</v>
+        <v>3511</v>
       </c>
       <c r="H83" t="n">
-        <v>4263</v>
+        <v>1014</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>2025</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3208,16 +3208,16 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G84" t="n">
-        <v>5332</v>
+        <v>2473</v>
       </c>
       <c r="H84" t="n">
-        <v>1549</v>
+        <v>827</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>2025</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -3241,19 +3241,19 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F85" t="n">
-        <v>708</v>
+        <v>763</v>
       </c>
       <c r="G85" t="n">
-        <v>89143</v>
+        <v>95175</v>
       </c>
       <c r="H85" t="n">
-        <v>25910</v>
+        <v>28245</v>
       </c>
       <c r="I85" t="n">
-        <v>461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3261,7 +3261,7 @@
         <v>2025</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3274,19 +3274,19 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F86" t="n">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="G86" t="n">
-        <v>28630</v>
+        <v>33671</v>
       </c>
       <c r="H86" t="n">
-        <v>8362</v>
+        <v>10170</v>
       </c>
       <c r="I86" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3294,7 +3294,7 @@
         <v>2025</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3307,19 +3307,19 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G87" t="n">
-        <v>4498</v>
+        <v>3610</v>
       </c>
       <c r="H87" t="n">
-        <v>1298</v>
+        <v>1079</v>
       </c>
       <c r="I87" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3327,7 +3327,7 @@
         <v>2025</v>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3340,16 +3340,16 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F88" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G88" t="n">
-        <v>15231</v>
+        <v>13807</v>
       </c>
       <c r="H88" t="n">
-        <v>4442</v>
+        <v>4264</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>2025</v>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3373,19 +3373,19 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F89" t="n">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="G89" t="n">
-        <v>40784</v>
+        <v>44087</v>
       </c>
       <c r="H89" t="n">
-        <v>11808</v>
+        <v>12732</v>
       </c>
       <c r="I89" t="n">
-        <v>241</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
